--- a/presidential.xlsx
+++ b/presidential.xlsx
@@ -1,28 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Dropbox\Python\ElectionHelper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C53DD559-DB98-4CC8-91AD-D5686DB61517}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="presidential.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Primary Vote" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Position</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pre-Poll</t>
+  </si>
+  <si>
+    <t>JFR</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>Conservatorium</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>Total Votes</t>
   </si>
   <si>
     <t>A</t>
@@ -37,62 +64,23 @@
     <t>D</t>
   </si>
   <si>
-    <t>Informal</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Jacky He</t>
-  </si>
-  <si>
-    <t>Alex Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andriana Malvisi </t>
-  </si>
-  <si>
-    <t>Lara Sonnenschein</t>
-  </si>
-  <si>
-    <t>Pre-Poll</t>
-  </si>
-  <si>
-    <t>JFR</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>Cumberland</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>SCA</t>
-  </si>
-  <si>
-    <t>Conservatorium</t>
-  </si>
-  <si>
-    <t>Declaration</t>
-  </si>
-  <si>
-    <t>Postal</t>
-  </si>
-  <si>
-    <t>Total Votes</t>
+    <t>Jacky</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Lara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,14 +143,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -209,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,24 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,298 +430,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>353</v>
-      </c>
-      <c r="D3">
-        <v>564</v>
-      </c>
-      <c r="E3">
-        <v>545</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>33</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>270</v>
-      </c>
-      <c r="F4">
-        <v>66</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>108</v>
-      </c>
-      <c r="D5">
-        <v>205</v>
-      </c>
-      <c r="E5">
-        <v>286</v>
-      </c>
-      <c r="F5">
-        <v>72</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>277</v>
-      </c>
-      <c r="E6">
-        <v>389</v>
-      </c>
-      <c r="F6">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>97</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>113</v>
-      </c>
-      <c r="E7">
-        <v>86</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>SUM(B7:L7)</f>
-        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/presidential.xlsx
+++ b/presidential.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Primary Vote" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Primary Vote" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Count_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Count_3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>Position</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -55,57 +60,61 @@
     <t>A</t>
   </si>
   <si>
+    <t>Jacky He</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>Chia-shuo (Alex) Yang</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Adriana Malavisi</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Jacky</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Lara</t>
+    <t>Lara Sonnenschein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,21 +137,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -430,84 +448,550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>471</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
         <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>266</v>
+      </c>
+      <c r="E3" t="n">
+        <v>305</v>
+      </c>
+      <c r="F3" t="n">
+        <v>141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>155</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>136</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>268</v>
+      </c>
+      <c r="E5" t="n">
+        <v>345</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>471</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>266</v>
+      </c>
+      <c r="E3" t="n">
+        <v>305</v>
+      </c>
+      <c r="F3" t="n">
+        <v>141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>268</v>
+      </c>
+      <c r="E4" t="n">
+        <v>345</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="n">
+        <v>161</v>
+      </c>
+      <c r="D2" t="n">
+        <v>266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>305</v>
+      </c>
+      <c r="F2" t="n">
+        <v>141</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>268</v>
+      </c>
+      <c r="E3" t="n">
+        <v>345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>